--- a/data_year/zb/就业人员和工资/按行业分城镇单位就业人员平均工资.xlsx
+++ b/data_year/zb/就业人员和工资/按行业分城镇单位就业人员平均工资.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,1295 +538,835 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>40466</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23382</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64436</v>
+      </c>
+      <c r="E2" t="n">
+        <v>38242</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16717</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30916</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40232</v>
+      </c>
       <c r="I2" t="n">
-        <v>9333</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>36539</v>
+      </c>
+      <c r="J2" t="n">
+        <v>28206</v>
+      </c>
+      <c r="K2" t="n">
+        <v>27529</v>
+      </c>
+      <c r="L2" t="n">
+        <v>35870</v>
+      </c>
+      <c r="M2" t="n">
+        <v>33635</v>
+      </c>
+      <c r="N2" t="n">
+        <v>38968</v>
+      </c>
+      <c r="O2" t="n">
+        <v>41428</v>
+      </c>
+      <c r="P2" t="n">
+        <v>25544</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>47309</v>
+      </c>
+      <c r="R2" t="n">
+        <v>56376</v>
+      </c>
+      <c r="S2" t="n">
+        <v>39566</v>
+      </c>
+      <c r="T2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="U2" t="n">
+        <v>70146</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>47078</v>
+      </c>
+      <c r="C3" t="n">
+        <v>27486</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70918</v>
+      </c>
+      <c r="E3" t="n">
+        <v>42062</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19469</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36665</v>
+      </c>
+      <c r="H3" t="n">
+        <v>46206</v>
+      </c>
       <c r="I3" t="n">
-        <v>10834</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>41799</v>
+      </c>
+      <c r="J3" t="n">
+        <v>33169</v>
+      </c>
+      <c r="K3" t="n">
+        <v>32103</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42837</v>
+      </c>
+      <c r="M3" t="n">
+        <v>40654</v>
+      </c>
+      <c r="N3" t="n">
+        <v>43194</v>
+      </c>
+      <c r="O3" t="n">
+        <v>47878</v>
+      </c>
+      <c r="P3" t="n">
+        <v>28868</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>52723</v>
+      </c>
+      <c r="R3" t="n">
+        <v>64252</v>
+      </c>
+      <c r="S3" t="n">
+        <v>46976</v>
+      </c>
+      <c r="T3" t="n">
+        <v>52230</v>
+      </c>
+      <c r="U3" t="n">
+        <v>81109</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>53391</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31267</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80510</v>
+      </c>
+      <c r="E4" t="n">
+        <v>46074</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22687</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41650</v>
+      </c>
+      <c r="H4" t="n">
+        <v>52564</v>
+      </c>
       <c r="I4" t="n">
-        <v>12373</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>46769</v>
+      </c>
+      <c r="J4" t="n">
+        <v>35135</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36483</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46764</v>
+      </c>
+      <c r="M4" t="n">
+        <v>46340</v>
+      </c>
+      <c r="N4" t="n">
+        <v>47734</v>
+      </c>
+      <c r="O4" t="n">
+        <v>53558</v>
+      </c>
+      <c r="P4" t="n">
+        <v>32343</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>58202</v>
+      </c>
+      <c r="R4" t="n">
+        <v>69254</v>
+      </c>
+      <c r="S4" t="n">
+        <v>53162</v>
+      </c>
+      <c r="T4" t="n">
+        <v>56946</v>
+      </c>
+      <c r="U4" t="n">
+        <v>89743</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15753</v>
+        <v>57993</v>
       </c>
       <c r="C5" t="n">
-        <v>11198</v>
+        <v>34044</v>
       </c>
       <c r="D5" t="n">
-        <v>30897</v>
+        <v>90915</v>
       </c>
       <c r="E5" t="n">
-        <v>15355</v>
+        <v>49259</v>
       </c>
       <c r="F5" t="n">
-        <v>6884</v>
+        <v>25820</v>
       </c>
       <c r="G5" t="n">
-        <v>12671</v>
+        <v>46431</v>
       </c>
       <c r="H5" t="n">
-        <v>16185</v>
+        <v>57979</v>
       </c>
       <c r="I5" t="n">
-        <v>13969</v>
+        <v>51483</v>
       </c>
       <c r="J5" t="n">
-        <v>12665</v>
+        <v>38429</v>
       </c>
       <c r="K5" t="n">
-        <v>11328</v>
+        <v>42072</v>
       </c>
       <c r="L5" t="n">
-        <v>17085</v>
+        <v>51048</v>
       </c>
       <c r="M5" t="n">
-        <v>10894</v>
+        <v>50308</v>
       </c>
       <c r="N5" t="n">
-        <v>14189</v>
+        <v>51950</v>
       </c>
       <c r="O5" t="n">
-        <v>17098</v>
+        <v>59336</v>
       </c>
       <c r="P5" t="n">
-        <v>11774</v>
+        <v>36123</v>
       </c>
       <c r="Q5" t="n">
-        <v>18574</v>
+        <v>67085</v>
       </c>
       <c r="R5" t="n">
-        <v>20442</v>
+        <v>76602</v>
       </c>
       <c r="S5" t="n">
-        <v>17020</v>
+        <v>62538</v>
       </c>
       <c r="T5" t="n">
-        <v>13627</v>
+        <v>60138</v>
       </c>
       <c r="U5" t="n">
-        <v>20780</v>
+        <v>99653</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18071</v>
+        <v>63416</v>
       </c>
       <c r="C6" t="n">
-        <v>12618</v>
+        <v>37264</v>
       </c>
       <c r="D6" t="n">
-        <v>33449</v>
+        <v>100845</v>
       </c>
       <c r="E6" t="n">
-        <v>17372</v>
+        <v>53110</v>
       </c>
       <c r="F6" t="n">
-        <v>7497</v>
+        <v>28356</v>
       </c>
       <c r="G6" t="n">
-        <v>14251</v>
+        <v>51369</v>
       </c>
       <c r="H6" t="n">
-        <v>18386</v>
+        <v>63267</v>
       </c>
       <c r="I6" t="n">
-        <v>15920</v>
+        <v>56360</v>
       </c>
       <c r="J6" t="n">
-        <v>13680</v>
+        <v>41882</v>
       </c>
       <c r="K6" t="n">
-        <v>12578</v>
+        <v>45804</v>
       </c>
       <c r="L6" t="n">
-        <v>18467</v>
+        <v>55568</v>
       </c>
       <c r="M6" t="n">
-        <v>13012</v>
+        <v>55838</v>
       </c>
       <c r="N6" t="n">
-        <v>16085</v>
+        <v>56580</v>
       </c>
       <c r="O6" t="n">
-        <v>20522</v>
+        <v>64375</v>
       </c>
       <c r="P6" t="n">
-        <v>12884</v>
+        <v>39198</v>
       </c>
       <c r="Q6" t="n">
-        <v>21543</v>
+        <v>73339</v>
       </c>
       <c r="R6" t="n">
-        <v>23351</v>
+        <v>82259</v>
       </c>
       <c r="S6" t="n">
-        <v>18723</v>
+        <v>67131</v>
       </c>
       <c r="T6" t="n">
-        <v>16774</v>
+        <v>61677</v>
       </c>
       <c r="U6" t="n">
-        <v>24299</v>
+        <v>108273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20911</v>
+        <v>68822</v>
       </c>
       <c r="C7" t="n">
-        <v>13876</v>
+        <v>40806</v>
       </c>
       <c r="D7" t="n">
-        <v>38799</v>
+        <v>112042</v>
       </c>
       <c r="E7" t="n">
-        <v>20234</v>
+        <v>62323</v>
       </c>
       <c r="F7" t="n">
-        <v>8207</v>
+        <v>31947</v>
       </c>
       <c r="G7" t="n">
-        <v>15934</v>
+        <v>55324</v>
       </c>
       <c r="H7" t="n">
-        <v>20808</v>
+        <v>71624</v>
       </c>
       <c r="I7" t="n">
-        <v>18200</v>
+        <v>62029</v>
       </c>
       <c r="J7" t="n">
-        <v>15747</v>
+        <v>44802</v>
       </c>
       <c r="K7" t="n">
-        <v>14112</v>
+        <v>48886</v>
       </c>
       <c r="L7" t="n">
-        <v>20253</v>
+        <v>60244</v>
       </c>
       <c r="M7" t="n">
-        <v>15256</v>
+        <v>60328</v>
       </c>
       <c r="N7" t="n">
-        <v>18259</v>
+        <v>66592</v>
       </c>
       <c r="O7" t="n">
-        <v>22670</v>
+        <v>72764</v>
       </c>
       <c r="P7" t="n">
-        <v>14322</v>
+        <v>43528</v>
       </c>
       <c r="Q7" t="n">
-        <v>24750</v>
+        <v>78886</v>
       </c>
       <c r="R7" t="n">
-        <v>27155</v>
+        <v>89410</v>
       </c>
       <c r="S7" t="n">
-        <v>21233</v>
+        <v>72489</v>
       </c>
       <c r="T7" t="n">
-        <v>20449</v>
+        <v>59404</v>
       </c>
       <c r="U7" t="n">
-        <v>29229</v>
+        <v>114777</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24111</v>
+        <v>73650</v>
       </c>
       <c r="C8" t="n">
-        <v>15236</v>
+        <v>43382</v>
       </c>
       <c r="D8" t="n">
-        <v>43435</v>
+        <v>122478</v>
       </c>
       <c r="E8" t="n">
-        <v>22546</v>
+        <v>70959</v>
       </c>
       <c r="F8" t="n">
-        <v>9269</v>
+        <v>33612</v>
       </c>
       <c r="G8" t="n">
-        <v>18225</v>
+        <v>59470</v>
       </c>
       <c r="H8" t="n">
-        <v>23590</v>
+        <v>80026</v>
       </c>
       <c r="I8" t="n">
-        <v>20856</v>
+        <v>67569</v>
       </c>
       <c r="J8" t="n">
-        <v>18030</v>
+        <v>47577</v>
       </c>
       <c r="K8" t="n">
-        <v>16164</v>
+        <v>52082</v>
       </c>
       <c r="L8" t="n">
-        <v>22238</v>
+        <v>65497</v>
       </c>
       <c r="M8" t="n">
-        <v>17796</v>
+        <v>65061</v>
       </c>
       <c r="N8" t="n">
-        <v>20918</v>
+        <v>74498</v>
       </c>
       <c r="O8" t="n">
-        <v>25847</v>
+        <v>79875</v>
       </c>
       <c r="P8" t="n">
-        <v>15630</v>
+        <v>47750</v>
       </c>
       <c r="Q8" t="n">
-        <v>28424</v>
+        <v>83863</v>
       </c>
       <c r="R8" t="n">
-        <v>31644</v>
+        <v>96638</v>
       </c>
       <c r="S8" t="n">
-        <v>24510</v>
+        <v>76782</v>
       </c>
       <c r="T8" t="n">
-        <v>24125</v>
+        <v>60544</v>
       </c>
       <c r="U8" t="n">
-        <v>35495</v>
+        <v>117418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27903</v>
+        <v>80225</v>
       </c>
       <c r="C9" t="n">
-        <v>17046</v>
+        <v>45751</v>
       </c>
       <c r="D9" t="n">
-        <v>47700</v>
+        <v>133150</v>
       </c>
       <c r="E9" t="n">
-        <v>27731</v>
+        <v>80372</v>
       </c>
       <c r="F9" t="n">
-        <v>10847</v>
+        <v>36504</v>
       </c>
       <c r="G9" t="n">
-        <v>21144</v>
+        <v>64452</v>
       </c>
       <c r="H9" t="n">
-        <v>27892</v>
+        <v>89648</v>
       </c>
       <c r="I9" t="n">
-        <v>24721</v>
+        <v>74318</v>
       </c>
       <c r="J9" t="n">
-        <v>20370</v>
+        <v>50552</v>
       </c>
       <c r="K9" t="n">
-        <v>18482</v>
+        <v>55568</v>
       </c>
       <c r="L9" t="n">
-        <v>26085</v>
+        <v>69277</v>
       </c>
       <c r="M9" t="n">
-        <v>21074</v>
+        <v>71201</v>
       </c>
       <c r="N9" t="n">
-        <v>25908</v>
+        <v>83412</v>
       </c>
       <c r="O9" t="n">
-        <v>30430</v>
+        <v>87803</v>
       </c>
       <c r="P9" t="n">
-        <v>18383</v>
+        <v>52229</v>
       </c>
       <c r="Q9" t="n">
-        <v>33470</v>
+        <v>90348</v>
       </c>
       <c r="R9" t="n">
-        <v>38432</v>
+        <v>107815</v>
       </c>
       <c r="S9" t="n">
-        <v>27807</v>
+        <v>81393</v>
       </c>
       <c r="T9" t="n">
-        <v>28185</v>
+        <v>69500</v>
       </c>
       <c r="U9" t="n">
-        <v>44011</v>
+        <v>122851</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32041</v>
+        <v>88508</v>
       </c>
       <c r="C10" t="n">
-        <v>19321</v>
+        <v>48260</v>
       </c>
       <c r="D10" t="n">
-        <v>54906</v>
+        <v>147678</v>
       </c>
       <c r="E10" t="n">
-        <v>32296</v>
+        <v>87932</v>
       </c>
       <c r="F10" t="n">
-        <v>12560</v>
+        <v>36466</v>
       </c>
       <c r="G10" t="n">
-        <v>24404</v>
+        <v>72088</v>
       </c>
       <c r="H10" t="n">
-        <v>32185</v>
+        <v>98118</v>
       </c>
       <c r="I10" t="n">
-        <v>28898</v>
+        <v>82413</v>
       </c>
       <c r="J10" t="n">
-        <v>22858</v>
+        <v>55343</v>
       </c>
       <c r="K10" t="n">
-        <v>21223</v>
+        <v>60501</v>
       </c>
       <c r="L10" t="n">
-        <v>30118</v>
+        <v>75281</v>
       </c>
       <c r="M10" t="n">
-        <v>25818</v>
+        <v>80551</v>
       </c>
       <c r="N10" t="n">
-        <v>29831</v>
+        <v>92383</v>
       </c>
       <c r="O10" t="n">
-        <v>34158</v>
+        <v>98621</v>
       </c>
       <c r="P10" t="n">
-        <v>21103</v>
+        <v>56670</v>
       </c>
       <c r="Q10" t="n">
-        <v>38515</v>
+        <v>100162</v>
       </c>
       <c r="R10" t="n">
-        <v>45512</v>
+        <v>123343</v>
       </c>
       <c r="S10" t="n">
-        <v>32915</v>
+        <v>85147</v>
       </c>
       <c r="T10" t="n">
-        <v>34233</v>
+        <v>81429</v>
       </c>
       <c r="U10" t="n">
-        <v>53897</v>
+        <v>129837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35315</v>
+        <v>97050</v>
       </c>
       <c r="C11" t="n">
-        <v>20860</v>
+        <v>50346</v>
       </c>
       <c r="D11" t="n">
-        <v>58154</v>
+        <v>161352</v>
       </c>
       <c r="E11" t="n">
-        <v>35326</v>
+        <v>94369</v>
       </c>
       <c r="F11" t="n">
-        <v>14356</v>
+        <v>39340</v>
       </c>
       <c r="G11" t="n">
-        <v>26810</v>
+        <v>78147</v>
       </c>
       <c r="H11" t="n">
-        <v>35662</v>
+        <v>108903</v>
       </c>
       <c r="I11" t="n">
-        <v>32244</v>
+        <v>90501</v>
       </c>
       <c r="J11" t="n">
-        <v>25172</v>
+        <v>60232</v>
       </c>
       <c r="K11" t="n">
-        <v>24161</v>
+        <v>65580</v>
       </c>
       <c r="L11" t="n">
-        <v>32242</v>
+        <v>80157</v>
       </c>
       <c r="M11" t="n">
-        <v>29139</v>
+        <v>89047</v>
       </c>
       <c r="N11" t="n">
-        <v>34543</v>
+        <v>97681</v>
       </c>
       <c r="O11" t="n">
-        <v>37755</v>
+        <v>107708</v>
       </c>
       <c r="P11" t="n">
-        <v>23159</v>
+        <v>61158</v>
       </c>
       <c r="Q11" t="n">
-        <v>41869</v>
+        <v>107733</v>
       </c>
       <c r="R11" t="n">
-        <v>50143</v>
+        <v>133459</v>
       </c>
       <c r="S11" t="n">
-        <v>35494</v>
+        <v>88190</v>
       </c>
       <c r="T11" t="n">
-        <v>38038</v>
+        <v>91068</v>
       </c>
       <c r="U11" t="n">
-        <v>60398</v>
+        <v>131405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40466</v>
+        <v>100642</v>
       </c>
       <c r="C12" t="n">
-        <v>23382</v>
+        <v>48833</v>
       </c>
       <c r="D12" t="n">
-        <v>64436</v>
+        <v>177544</v>
       </c>
       <c r="E12" t="n">
-        <v>38242</v>
+        <v>104487</v>
       </c>
       <c r="F12" t="n">
-        <v>16717</v>
+        <v>48540</v>
       </c>
       <c r="G12" t="n">
-        <v>30916</v>
+        <v>82783</v>
       </c>
       <c r="H12" t="n">
-        <v>40232</v>
+        <v>115449</v>
       </c>
       <c r="I12" t="n">
-        <v>36539</v>
+        <v>97379</v>
       </c>
       <c r="J12" t="n">
-        <v>28206</v>
+        <v>60722</v>
       </c>
       <c r="K12" t="n">
-        <v>27529</v>
+        <v>69986</v>
       </c>
       <c r="L12" t="n">
-        <v>35870</v>
+        <v>83807</v>
       </c>
       <c r="M12" t="n">
-        <v>33635</v>
+        <v>96521</v>
       </c>
       <c r="N12" t="n">
-        <v>38968</v>
+        <v>106474</v>
       </c>
       <c r="O12" t="n">
-        <v>41428</v>
+        <v>112081</v>
       </c>
       <c r="P12" t="n">
-        <v>25544</v>
+        <v>63914</v>
       </c>
       <c r="Q12" t="n">
-        <v>47309</v>
+        <v>116728</v>
       </c>
       <c r="R12" t="n">
-        <v>56376</v>
+        <v>139851</v>
       </c>
       <c r="S12" t="n">
-        <v>39566</v>
+        <v>92924</v>
       </c>
       <c r="T12" t="n">
-        <v>44196</v>
+        <v>96674</v>
       </c>
       <c r="U12" t="n">
-        <v>70146</v>
+        <v>133390</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47078</v>
+        <v>109851</v>
       </c>
       <c r="C13" t="n">
-        <v>27486</v>
+        <v>53631</v>
       </c>
       <c r="D13" t="n">
-        <v>70918</v>
+        <v>201506</v>
       </c>
       <c r="E13" t="n">
-        <v>42062</v>
+        <v>111361</v>
       </c>
       <c r="F13" t="n">
-        <v>19469</v>
+        <v>53819</v>
       </c>
       <c r="G13" t="n">
-        <v>36665</v>
+        <v>92459</v>
       </c>
       <c r="H13" t="n">
-        <v>46206</v>
+        <v>126828</v>
       </c>
       <c r="I13" t="n">
-        <v>41799</v>
+        <v>106837</v>
       </c>
       <c r="J13" t="n">
-        <v>33169</v>
+        <v>65193</v>
       </c>
       <c r="K13" t="n">
-        <v>32103</v>
+        <v>75762</v>
       </c>
       <c r="L13" t="n">
-        <v>42837</v>
+        <v>91143</v>
       </c>
       <c r="M13" t="n">
-        <v>40654</v>
+        <v>107735</v>
       </c>
       <c r="N13" t="n">
-        <v>43194</v>
+        <v>111392</v>
       </c>
       <c r="O13" t="n">
-        <v>47878</v>
+        <v>117329</v>
       </c>
       <c r="P13" t="n">
-        <v>28868</v>
+        <v>65802</v>
       </c>
       <c r="Q13" t="n">
-        <v>52723</v>
+        <v>125332</v>
       </c>
       <c r="R13" t="n">
-        <v>64252</v>
+        <v>151776</v>
       </c>
       <c r="S13" t="n">
-        <v>46976</v>
+        <v>102537</v>
       </c>
       <c r="T13" t="n">
-        <v>52230</v>
+        <v>108467</v>
       </c>
       <c r="U13" t="n">
-        <v>81109</v>
+        <v>150843</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>53391</v>
-      </c>
-      <c r="C14" t="n">
-        <v>31267</v>
-      </c>
-      <c r="D14" t="n">
-        <v>80510</v>
-      </c>
-      <c r="E14" t="n">
-        <v>46074</v>
-      </c>
-      <c r="F14" t="n">
-        <v>22687</v>
-      </c>
-      <c r="G14" t="n">
-        <v>41650</v>
-      </c>
-      <c r="H14" t="n">
-        <v>52564</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>46769</v>
-      </c>
-      <c r="J14" t="n">
-        <v>35135</v>
-      </c>
-      <c r="K14" t="n">
-        <v>36483</v>
-      </c>
-      <c r="L14" t="n">
-        <v>46764</v>
-      </c>
-      <c r="M14" t="n">
-        <v>46340</v>
-      </c>
-      <c r="N14" t="n">
-        <v>47734</v>
-      </c>
-      <c r="O14" t="n">
-        <v>53558</v>
-      </c>
-      <c r="P14" t="n">
-        <v>32343</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>58202</v>
-      </c>
-      <c r="R14" t="n">
-        <v>69254</v>
-      </c>
-      <c r="S14" t="n">
-        <v>53162</v>
-      </c>
-      <c r="T14" t="n">
-        <v>56946</v>
-      </c>
-      <c r="U14" t="n">
-        <v>89743</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>57993</v>
-      </c>
-      <c r="C15" t="n">
-        <v>34044</v>
-      </c>
-      <c r="D15" t="n">
-        <v>90915</v>
-      </c>
-      <c r="E15" t="n">
-        <v>49259</v>
-      </c>
-      <c r="F15" t="n">
-        <v>25820</v>
-      </c>
-      <c r="G15" t="n">
-        <v>46431</v>
-      </c>
-      <c r="H15" t="n">
-        <v>57979</v>
-      </c>
-      <c r="I15" t="n">
-        <v>51483</v>
-      </c>
-      <c r="J15" t="n">
-        <v>38429</v>
-      </c>
-      <c r="K15" t="n">
-        <v>42072</v>
-      </c>
-      <c r="L15" t="n">
-        <v>51048</v>
-      </c>
-      <c r="M15" t="n">
-        <v>50308</v>
-      </c>
-      <c r="N15" t="n">
-        <v>51950</v>
-      </c>
-      <c r="O15" t="n">
-        <v>59336</v>
-      </c>
-      <c r="P15" t="n">
-        <v>36123</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>67085</v>
-      </c>
-      <c r="R15" t="n">
-        <v>76602</v>
-      </c>
-      <c r="S15" t="n">
-        <v>62538</v>
-      </c>
-      <c r="T15" t="n">
-        <v>60138</v>
-      </c>
-      <c r="U15" t="n">
-        <v>99653</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>63416</v>
-      </c>
-      <c r="C16" t="n">
-        <v>37264</v>
-      </c>
-      <c r="D16" t="n">
-        <v>100845</v>
-      </c>
-      <c r="E16" t="n">
-        <v>53110</v>
-      </c>
-      <c r="F16" t="n">
-        <v>28356</v>
-      </c>
-      <c r="G16" t="n">
-        <v>51369</v>
-      </c>
-      <c r="H16" t="n">
-        <v>63267</v>
-      </c>
-      <c r="I16" t="n">
-        <v>56360</v>
-      </c>
-      <c r="J16" t="n">
-        <v>41882</v>
-      </c>
-      <c r="K16" t="n">
-        <v>45804</v>
-      </c>
-      <c r="L16" t="n">
-        <v>55568</v>
-      </c>
-      <c r="M16" t="n">
-        <v>55838</v>
-      </c>
-      <c r="N16" t="n">
-        <v>56580</v>
-      </c>
-      <c r="O16" t="n">
-        <v>64375</v>
-      </c>
-      <c r="P16" t="n">
-        <v>39198</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>73339</v>
-      </c>
-      <c r="R16" t="n">
-        <v>82259</v>
-      </c>
-      <c r="S16" t="n">
-        <v>67131</v>
-      </c>
-      <c r="T16" t="n">
-        <v>61677</v>
-      </c>
-      <c r="U16" t="n">
-        <v>108273</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>68822</v>
-      </c>
-      <c r="C17" t="n">
-        <v>40806</v>
-      </c>
-      <c r="D17" t="n">
-        <v>112042</v>
-      </c>
-      <c r="E17" t="n">
-        <v>62323</v>
-      </c>
-      <c r="F17" t="n">
-        <v>31947</v>
-      </c>
-      <c r="G17" t="n">
-        <v>55324</v>
-      </c>
-      <c r="H17" t="n">
-        <v>71624</v>
-      </c>
-      <c r="I17" t="n">
-        <v>62029</v>
-      </c>
-      <c r="J17" t="n">
-        <v>44802</v>
-      </c>
-      <c r="K17" t="n">
-        <v>48886</v>
-      </c>
-      <c r="L17" t="n">
-        <v>60244</v>
-      </c>
-      <c r="M17" t="n">
-        <v>60328</v>
-      </c>
-      <c r="N17" t="n">
-        <v>66592</v>
-      </c>
-      <c r="O17" t="n">
-        <v>72764</v>
-      </c>
-      <c r="P17" t="n">
-        <v>43528</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>78886</v>
-      </c>
-      <c r="R17" t="n">
-        <v>89410</v>
-      </c>
-      <c r="S17" t="n">
-        <v>72489</v>
-      </c>
-      <c r="T17" t="n">
-        <v>59404</v>
-      </c>
-      <c r="U17" t="n">
-        <v>114777</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>73650</v>
-      </c>
-      <c r="C18" t="n">
-        <v>43382</v>
-      </c>
-      <c r="D18" t="n">
-        <v>122478</v>
-      </c>
-      <c r="E18" t="n">
-        <v>70959</v>
-      </c>
-      <c r="F18" t="n">
-        <v>33612</v>
-      </c>
-      <c r="G18" t="n">
-        <v>59470</v>
-      </c>
-      <c r="H18" t="n">
-        <v>80026</v>
-      </c>
-      <c r="I18" t="n">
-        <v>67569</v>
-      </c>
-      <c r="J18" t="n">
-        <v>47577</v>
-      </c>
-      <c r="K18" t="n">
-        <v>52082</v>
-      </c>
-      <c r="L18" t="n">
-        <v>65497</v>
-      </c>
-      <c r="M18" t="n">
-        <v>65061</v>
-      </c>
-      <c r="N18" t="n">
-        <v>74498</v>
-      </c>
-      <c r="O18" t="n">
-        <v>79875</v>
-      </c>
-      <c r="P18" t="n">
-        <v>47750</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>83863</v>
-      </c>
-      <c r="R18" t="n">
-        <v>96638</v>
-      </c>
-      <c r="S18" t="n">
-        <v>76782</v>
-      </c>
-      <c r="T18" t="n">
-        <v>60544</v>
-      </c>
-      <c r="U18" t="n">
-        <v>117418</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>80225</v>
-      </c>
-      <c r="C19" t="n">
-        <v>45751</v>
-      </c>
-      <c r="D19" t="n">
-        <v>133150</v>
-      </c>
-      <c r="E19" t="n">
-        <v>80372</v>
-      </c>
-      <c r="F19" t="n">
-        <v>36504</v>
-      </c>
-      <c r="G19" t="n">
-        <v>64452</v>
-      </c>
-      <c r="H19" t="n">
-        <v>89648</v>
-      </c>
-      <c r="I19" t="n">
-        <v>74318</v>
-      </c>
-      <c r="J19" t="n">
-        <v>50552</v>
-      </c>
-      <c r="K19" t="n">
-        <v>55568</v>
-      </c>
-      <c r="L19" t="n">
-        <v>69277</v>
-      </c>
-      <c r="M19" t="n">
-        <v>71201</v>
-      </c>
-      <c r="N19" t="n">
-        <v>83412</v>
-      </c>
-      <c r="O19" t="n">
-        <v>87803</v>
-      </c>
-      <c r="P19" t="n">
-        <v>52229</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>90348</v>
-      </c>
-      <c r="R19" t="n">
-        <v>107815</v>
-      </c>
-      <c r="S19" t="n">
-        <v>81393</v>
-      </c>
-      <c r="T19" t="n">
-        <v>69500</v>
-      </c>
-      <c r="U19" t="n">
-        <v>122851</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>88508</v>
-      </c>
-      <c r="C20" t="n">
-        <v>48260</v>
-      </c>
-      <c r="D20" t="n">
-        <v>147678</v>
-      </c>
-      <c r="E20" t="n">
-        <v>87932</v>
-      </c>
-      <c r="F20" t="n">
-        <v>36466</v>
-      </c>
-      <c r="G20" t="n">
-        <v>72088</v>
-      </c>
-      <c r="H20" t="n">
-        <v>98118</v>
-      </c>
-      <c r="I20" t="n">
-        <v>82413</v>
-      </c>
-      <c r="J20" t="n">
-        <v>55343</v>
-      </c>
-      <c r="K20" t="n">
-        <v>60501</v>
-      </c>
-      <c r="L20" t="n">
-        <v>75281</v>
-      </c>
-      <c r="M20" t="n">
-        <v>80551</v>
-      </c>
-      <c r="N20" t="n">
-        <v>92383</v>
-      </c>
-      <c r="O20" t="n">
-        <v>98621</v>
-      </c>
-      <c r="P20" t="n">
-        <v>56670</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>100162</v>
-      </c>
-      <c r="R20" t="n">
-        <v>123343</v>
-      </c>
-      <c r="S20" t="n">
-        <v>85147</v>
-      </c>
-      <c r="T20" t="n">
-        <v>81429</v>
-      </c>
-      <c r="U20" t="n">
-        <v>129837</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>97050</v>
-      </c>
-      <c r="C21" t="n">
-        <v>50346</v>
-      </c>
-      <c r="D21" t="n">
-        <v>161352</v>
-      </c>
-      <c r="E21" t="n">
-        <v>94369</v>
-      </c>
-      <c r="F21" t="n">
-        <v>39340</v>
-      </c>
-      <c r="G21" t="n">
-        <v>78147</v>
-      </c>
-      <c r="H21" t="n">
-        <v>108903</v>
-      </c>
-      <c r="I21" t="n">
-        <v>90501</v>
-      </c>
-      <c r="J21" t="n">
-        <v>60232</v>
-      </c>
-      <c r="K21" t="n">
-        <v>65580</v>
-      </c>
-      <c r="L21" t="n">
-        <v>80157</v>
-      </c>
-      <c r="M21" t="n">
-        <v>89047</v>
-      </c>
-      <c r="N21" t="n">
-        <v>97681</v>
-      </c>
-      <c r="O21" t="n">
-        <v>107708</v>
-      </c>
-      <c r="P21" t="n">
-        <v>61158</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>107733</v>
-      </c>
-      <c r="R21" t="n">
-        <v>133459</v>
-      </c>
-      <c r="S21" t="n">
-        <v>88190</v>
-      </c>
-      <c r="T21" t="n">
-        <v>91068</v>
-      </c>
-      <c r="U21" t="n">
-        <v>131405</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>100642</v>
-      </c>
-      <c r="C22" t="n">
-        <v>48833</v>
-      </c>
-      <c r="D22" t="n">
-        <v>177544</v>
-      </c>
-      <c r="E22" t="n">
-        <v>104487</v>
-      </c>
-      <c r="F22" t="n">
-        <v>48540</v>
-      </c>
-      <c r="G22" t="n">
-        <v>82783</v>
-      </c>
-      <c r="H22" t="n">
-        <v>115449</v>
-      </c>
-      <c r="I22" t="n">
-        <v>97379</v>
-      </c>
-      <c r="J22" t="n">
-        <v>60722</v>
-      </c>
-      <c r="K22" t="n">
-        <v>69986</v>
-      </c>
-      <c r="L22" t="n">
-        <v>83807</v>
-      </c>
-      <c r="M22" t="n">
-        <v>96521</v>
-      </c>
-      <c r="N22" t="n">
-        <v>106474</v>
-      </c>
-      <c r="O22" t="n">
-        <v>112081</v>
-      </c>
-      <c r="P22" t="n">
-        <v>63914</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>116728</v>
-      </c>
-      <c r="R22" t="n">
-        <v>139851</v>
-      </c>
-      <c r="S22" t="n">
-        <v>92924</v>
-      </c>
-      <c r="T22" t="n">
-        <v>96674</v>
-      </c>
-      <c r="U22" t="n">
-        <v>133390</v>
-      </c>
+        <v>114029</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
